--- a/outputs/test-g__Methanobrevibacter_A.xlsx
+++ b/outputs/test-g__Methanobrevibacter_A.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Row</t>
   </si>
@@ -82,16 +82,7 @@
     <t>5-s__Methanobrevibacter_A sp900314695</t>
   </si>
   <si>
-    <t>6-s__Methanobrevibacter_A sp900317865</t>
-  </si>
-  <si>
-    <t>7-s__Methanobrevibacter_A sp900319535</t>
-  </si>
-  <si>
-    <t>8-s__Methanobrevibacter_A sp900319985</t>
-  </si>
-  <si>
-    <t>9-s__Methanobrevibacter_A sp900320515</t>
+    <t>6-s__Methanobrevibacter_A sp900320515</t>
   </si>
   <si>
     <t>prediction</t>
@@ -142,7 +133,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:H17"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12.7109375" customWidth="true"/>
@@ -152,10 +143,7 @@
     <col min="5" max="5" width="35" customWidth="true"/>
     <col min="6" max="6" width="37.5703125" customWidth="true"/>
     <col min="7" max="7" width="37.5703125" customWidth="true"/>
-    <col min="8" max="8" width="37.5703125" customWidth="true"/>
-    <col min="9" max="9" width="37.5703125" customWidth="true"/>
-    <col min="10" max="10" width="37.5703125" customWidth="true"/>
-    <col min="11" max="11" width="10.28515625" customWidth="true"/>
+    <col min="8" max="8" width="10.28515625" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -183,49 +171,31 @@
       <c r="H1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>26</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.30403466450269589</v>
+        <v>0.14204810917872668</v>
       </c>
       <c r="C2">
-        <v>0.057311121518600003</v>
+        <v>0.14204810917872668</v>
       </c>
       <c r="D2">
-        <v>1.395501670526231e-13</v>
+        <v>0.14204810917872668</v>
       </c>
       <c r="E2">
-        <v>1.3955016705262303e-13</v>
+        <v>0.14204810917872676</v>
       </c>
       <c r="F2">
-        <v>3.9292562031311712e-07</v>
+        <v>0.28975945410636694</v>
       </c>
       <c r="G2">
-        <v>0.16527153456261448</v>
+        <v>0.14204810917872632</v>
       </c>
       <c r="H2">
-        <v>1.3955016705262305e-13</v>
-      </c>
-      <c r="I2">
-        <v>0.47338228648991121</v>
-      </c>
-      <c r="J2">
-        <v>1.3955016705262305e-13</v>
-      </c>
-      <c r="K2">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -233,34 +203,25 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>2.2238700596204742e-14</v>
+        <v>0.49999999999984457</v>
       </c>
       <c r="C3">
-        <v>0.0028127217078693866</v>
+        <v>7.7715595070388014e-14</v>
       </c>
       <c r="D3">
-        <v>2.2238700596204742e-14</v>
+        <v>7.7715595070388014e-14</v>
       </c>
       <c r="E3">
-        <v>2.2238700596204742e-14</v>
+        <v>7.7715595070388014e-14</v>
       </c>
       <c r="F3">
-        <v>0.90278105440816747</v>
+        <v>0.49999999999984457</v>
       </c>
       <c r="G3">
-        <v>0.061547490936250435</v>
+        <v>7.7715595070388027e-14</v>
       </c>
       <c r="H3">
-        <v>2.2238700596204742e-14</v>
-      </c>
-      <c r="I3">
-        <v>0.03285873294760152</v>
-      </c>
-      <c r="J3">
-        <v>2.2238700596204742e-14</v>
-      </c>
-      <c r="K3">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -268,33 +229,24 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>2.2252180621292396e-14</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>0.0038953235282984714</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>2.2252180621292396e-14</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>2.2252180621292396e-14</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.89639735357770556</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.049747942068329443</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>2.2252180621292396e-14</v>
-      </c>
-      <c r="I4">
-        <v>0.049959380825555247</v>
-      </c>
-      <c r="J4">
-        <v>2.2252180621292396e-14</v>
-      </c>
-      <c r="K4">
         <v>5</v>
       </c>
     </row>
@@ -303,34 +255,25 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>1.7201971789549498e-13</v>
+        <v>0.077917255177408648</v>
       </c>
       <c r="C5">
-        <v>0.043347052533162393</v>
+        <v>2.2382307161749346e-14</v>
       </c>
       <c r="D5">
-        <v>1.7201971789549498e-13</v>
+        <v>0.84416548964511551</v>
       </c>
       <c r="E5">
-        <v>1.7201971789549493e-13</v>
+        <v>2.2382307161749346e-14</v>
       </c>
       <c r="F5">
-        <v>0.0039362120667119386</v>
+        <v>0.077917255177408648</v>
       </c>
       <c r="G5">
-        <v>0.65505191750649805</v>
+        <v>2.2382307161749346e-14</v>
       </c>
       <c r="H5">
-        <v>1.7201971789549491e-13</v>
-      </c>
-      <c r="I5">
-        <v>0.29766481789276733</v>
-      </c>
-      <c r="J5">
-        <v>1.7201971789549498e-13</v>
-      </c>
-      <c r="K5">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -338,34 +281,25 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>5.8436855359613735e-13</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>0.1643938855224911</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>5.8436855359613826e-13</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>5.8436855359613786e-13</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>5.8436855359613786e-13</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>0.069697878214314973</v>
+        <v>1</v>
       </c>
       <c r="H6">
-        <v>5.8436855359613746e-13</v>
-      </c>
-      <c r="I6">
-        <v>0.40626833531420575</v>
-      </c>
-      <c r="J6">
-        <v>0.35963990094606613</v>
-      </c>
-      <c r="K6">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -373,33 +307,24 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>2.2265322375927874e-14</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>0.0032262752894272446</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>2.2265322375927874e-14</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>2.2265322375927874e-14</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>0.8781843824175195</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.075475517353755545</v>
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>2.2265322375927874e-14</v>
-      </c>
-      <c r="I7">
-        <v>0.043113824939186404</v>
-      </c>
-      <c r="J7">
-        <v>2.2265322375927874e-14</v>
-      </c>
-      <c r="K7">
         <v>5</v>
       </c>
     </row>
@@ -408,34 +333,25 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>3.3072795585950545e-13</v>
+        <v>0.077917255177408648</v>
       </c>
       <c r="C8">
-        <v>0.070225346666894284</v>
+        <v>2.2382307161749346e-14</v>
       </c>
       <c r="D8">
-        <v>3.307279558595058e-13</v>
+        <v>0.84416548964511551</v>
       </c>
       <c r="E8">
-        <v>3.30727955859506e-13</v>
+        <v>2.2382307161749346e-14</v>
       </c>
       <c r="F8">
-        <v>0.0016839645450212775</v>
+        <v>0.077917255177408648</v>
       </c>
       <c r="G8">
-        <v>0.62257163506763213</v>
+        <v>2.2382307161749346e-14</v>
       </c>
       <c r="H8">
-        <v>3.307279558595054e-13</v>
-      </c>
-      <c r="I8">
-        <v>0.30551905371879867</v>
-      </c>
-      <c r="J8">
-        <v>3.3072795585950686e-13</v>
-      </c>
-      <c r="K8">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9">
@@ -443,34 +359,25 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>0.29165491480784811</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>0.063260319284291627</v>
+        <v>0</v>
       </c>
       <c r="D9">
-        <v>1.4736340853557007e-13</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>1.4736340853557022e-13</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>1.4736340853557022e-13</v>
+        <v>0</v>
       </c>
       <c r="G9">
-        <v>0.012931688230327676</v>
+        <v>1</v>
       </c>
       <c r="H9">
-        <v>1.4736340853557007e-13</v>
-      </c>
-      <c r="I9">
-        <v>0.34049816286909479</v>
-      </c>
-      <c r="J9">
-        <v>0.29165491480784833</v>
-      </c>
-      <c r="K9">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10">
@@ -478,34 +385,25 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>2.2276190139733253e-14</v>
+        <v>0.077917255177408648</v>
       </c>
       <c r="C10">
-        <v>0.0031370069809588791</v>
+        <v>2.2382307161749346e-14</v>
       </c>
       <c r="D10">
-        <v>2.2276190139733253e-14</v>
+        <v>0.84416548964511551</v>
       </c>
       <c r="E10">
-        <v>2.2276190139733253e-14</v>
+        <v>2.2382307161749346e-14</v>
       </c>
       <c r="F10">
-        <v>0.00020145818142508376</v>
+        <v>0.077917255177408648</v>
       </c>
       <c r="G10">
-        <v>0.073414553077431804</v>
+        <v>2.2382307161749346e-14</v>
       </c>
       <c r="H10">
-        <v>0.87249450394396733</v>
-      </c>
-      <c r="I10">
-        <v>0.05075247781612776</v>
-      </c>
-      <c r="J10">
-        <v>2.2276190139733253e-14</v>
-      </c>
-      <c r="K10">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11">
@@ -513,33 +411,24 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>2.2254145346373594e-14</v>
+        <v>0</v>
       </c>
       <c r="C11">
-        <v>0.0029676071415524635</v>
+        <v>0</v>
       </c>
       <c r="D11">
-        <v>2.2254145346373594e-14</v>
+        <v>0</v>
       </c>
       <c r="E11">
-        <v>2.2254145346373594e-14</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>0.89284233802789525</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0.064607627609365767</v>
+        <v>0</v>
       </c>
       <c r="H11">
-        <v>2.2254145346373594e-14</v>
-      </c>
-      <c r="I11">
-        <v>0.039582427221075245</v>
-      </c>
-      <c r="J11">
-        <v>2.2254145346373594e-14</v>
-      </c>
-      <c r="K11">
         <v>5</v>
       </c>
     </row>
@@ -548,34 +437,25 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>6.1100598499603143e-13</v>
+        <v>7.7715595070388014e-14</v>
       </c>
       <c r="C12">
-        <v>0.20447764455699535</v>
+        <v>7.7715595070388014e-14</v>
       </c>
       <c r="D12">
-        <v>6.1100598499603143e-13</v>
+        <v>7.7715595070388014e-14</v>
       </c>
       <c r="E12">
-        <v>6.1100598499603123e-13</v>
+        <v>7.7715595070388014e-14</v>
       </c>
       <c r="F12">
-        <v>2.3765388727170065e-09</v>
+        <v>0.49999999999984457</v>
       </c>
       <c r="G12">
-        <v>0.21772303878007482</v>
+        <v>0.49999999999984457</v>
       </c>
       <c r="H12">
-        <v>6.1100598499603143e-13</v>
-      </c>
-      <c r="I12">
-        <v>0.57779931428333586</v>
-      </c>
-      <c r="J12">
-        <v>6.1100598499603143e-13</v>
-      </c>
-      <c r="K12">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13">
@@ -583,34 +463,25 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>2.2248123180998048e-14</v>
+        <v>0</v>
       </c>
       <c r="C13">
-        <v>0.0035544741589214534</v>
+        <v>0</v>
       </c>
       <c r="D13">
-        <v>2.2248123180998048e-14</v>
+        <v>0</v>
       </c>
       <c r="E13">
-        <v>0.055833102914620708</v>
+        <v>0</v>
       </c>
       <c r="F13">
-        <v>2.2248123180998048e-14</v>
+        <v>0</v>
       </c>
       <c r="G13">
-        <v>0.00034519857694722124</v>
+        <v>1</v>
       </c>
       <c r="H13">
-        <v>2.2248123180998048e-14</v>
-      </c>
-      <c r="I13">
-        <v>0.040161320321477539</v>
-      </c>
-      <c r="J13">
-        <v>0.9001059040279441</v>
-      </c>
-      <c r="K13">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14">
@@ -618,34 +489,25 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>1.5335406217574196e-13</v>
+        <v>0</v>
       </c>
       <c r="C14">
-        <v>0.0581639811592276</v>
+        <v>0</v>
       </c>
       <c r="D14">
-        <v>1.5335406217574199e-13</v>
+        <v>0</v>
       </c>
       <c r="E14">
-        <v>1.5335406217574212e-13</v>
+        <v>0</v>
       </c>
       <c r="F14">
-        <v>0.26429265446647582</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.28701775841656668</v>
+        <v>0</v>
       </c>
       <c r="H14">
-        <v>1.5335406217574212e-13</v>
-      </c>
-      <c r="I14">
-        <v>0.39052560595696328</v>
-      </c>
-      <c r="J14">
-        <v>1.5335406217574212e-13</v>
-      </c>
-      <c r="K14">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15">
@@ -653,34 +515,25 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>2.223540195753231e-14</v>
+        <v>0.28975945410636716</v>
       </c>
       <c r="C15">
-        <v>0.0032737064307591613</v>
+        <v>0.14204810917872665</v>
       </c>
       <c r="D15">
-        <v>2.223540195753231e-14</v>
+        <v>0.14204810917872657</v>
       </c>
       <c r="E15">
-        <v>2.223540195753231e-14</v>
+        <v>0.14204810917872657</v>
       </c>
       <c r="F15">
-        <v>1.814680477481815e-06</v>
+        <v>0.14204810917872657</v>
       </c>
       <c r="G15">
-        <v>0.057853966716292955</v>
+        <v>0.14204810917872654</v>
       </c>
       <c r="H15">
-        <v>0.90953846136268501</v>
-      </c>
-      <c r="I15">
-        <v>0.029332050809696419</v>
-      </c>
-      <c r="J15">
-        <v>2.223540195753231e-14</v>
-      </c>
-      <c r="K15">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -688,34 +541,25 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>2.2200152090357615e-14</v>
+        <v>0</v>
       </c>
       <c r="C16">
-        <v>0.0026938078472902908</v>
+        <v>0</v>
       </c>
       <c r="D16">
-        <v>2.2200152090357615e-14</v>
+        <v>0</v>
       </c>
       <c r="E16">
-        <v>2.2200152090357615e-14</v>
+        <v>0</v>
       </c>
       <c r="F16">
-        <v>2.2200152090357615e-14</v>
+        <v>0</v>
       </c>
       <c r="G16">
-        <v>0.00012767412660940196</v>
+        <v>1</v>
       </c>
       <c r="H16">
-        <v>2.2200152090357615e-14</v>
-      </c>
-      <c r="I16">
-        <v>0.015232067804901774</v>
-      </c>
-      <c r="J16">
-        <v>0.98194645022108762</v>
-      </c>
-      <c r="K16">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17">
@@ -723,34 +567,25 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>0.87413234302412302</v>
+        <v>0</v>
       </c>
       <c r="C17">
-        <v>0.0036058731283203729</v>
+        <v>0</v>
       </c>
       <c r="D17">
-        <v>2.2279909055130148e-14</v>
+        <v>0</v>
       </c>
       <c r="E17">
-        <v>2.2279909055130148e-14</v>
+        <v>0</v>
       </c>
       <c r="F17">
-        <v>2.2279909055130148e-14</v>
+        <v>0</v>
       </c>
       <c r="G17">
-        <v>0.0014809901942923005</v>
+        <v>1</v>
       </c>
       <c r="H17">
-        <v>2.2279909055130148e-14</v>
-      </c>
-      <c r="I17">
-        <v>0.068925332814995036</v>
-      </c>
-      <c r="J17">
-        <v>0.051855460838180184</v>
-      </c>
-      <c r="K17">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/test-g__Methanobrevibacter_A.xlsx
+++ b/outputs/test-g__Methanobrevibacter_A.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>Row</t>
   </si>
@@ -70,19 +70,58 @@
     <t>1-s__Methanobrevibacter_A gottschalkii</t>
   </si>
   <si>
-    <t>2-s__Methanobrevibacter_A oralis</t>
-  </si>
-  <si>
-    <t>3-s__Methanobrevibacter_A smithii</t>
-  </si>
-  <si>
-    <t>4-s__Methanobrevibacter_A smithii_A</t>
-  </si>
-  <si>
-    <t>5-s__Methanobrevibacter_A sp900314695</t>
-  </si>
-  <si>
-    <t>6-s__Methanobrevibacter_A sp900320515</t>
+    <t>2-s__Methanobrevibacter_A millerae</t>
+  </si>
+  <si>
+    <t>3-s__Methanobrevibacter_A oralis</t>
+  </si>
+  <si>
+    <t>4-s__Methanobrevibacter_A smithii</t>
+  </si>
+  <si>
+    <t>5-s__Methanobrevibacter_A smithii_A</t>
+  </si>
+  <si>
+    <t>6-s__Methanobrevibacter_A sp001548675</t>
+  </si>
+  <si>
+    <t>7-s__Methanobrevibacter_A sp002496065</t>
+  </si>
+  <si>
+    <t>8-s__Methanobrevibacter_A sp900313645</t>
+  </si>
+  <si>
+    <t>9-s__Methanobrevibacter_A sp900314615</t>
+  </si>
+  <si>
+    <t>10-s__Methanobrevibacter_A sp900314695</t>
+  </si>
+  <si>
+    <t>11-s__Methanobrevibacter_A sp900316895</t>
+  </si>
+  <si>
+    <t>12-s__Methanobrevibacter_A sp900317865</t>
+  </si>
+  <si>
+    <t>13-s__Methanobrevibacter_A sp900318035</t>
+  </si>
+  <si>
+    <t>14-s__Methanobrevibacter_A sp900319535</t>
+  </si>
+  <si>
+    <t>15-s__Methanobrevibacter_A sp900319985</t>
+  </si>
+  <si>
+    <t>16-s__Methanobrevibacter_A sp900320515</t>
+  </si>
+  <si>
+    <t>17-s__Methanobrevibacter_A sp900320955</t>
+  </si>
+  <si>
+    <t>18-s__Methanobrevibacter_A thaueri</t>
+  </si>
+  <si>
+    <t>19-s__Methanobrevibacter_A woesei</t>
   </si>
   <si>
     <t>prediction</t>
@@ -133,17 +172,30 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:U17"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12.7109375" customWidth="true"/>
     <col min="2" max="2" width="36.7109375" customWidth="true"/>
-    <col min="3" max="3" width="31.42578125" customWidth="true"/>
-    <col min="4" max="4" width="32.7109375" customWidth="true"/>
-    <col min="5" max="5" width="35" customWidth="true"/>
-    <col min="6" max="6" width="37.5703125" customWidth="true"/>
+    <col min="3" max="3" width="34" customWidth="true"/>
+    <col min="4" max="4" width="31.42578125" customWidth="true"/>
+    <col min="5" max="5" width="32.7109375" customWidth="true"/>
+    <col min="6" max="6" width="35" customWidth="true"/>
     <col min="7" max="7" width="37.5703125" customWidth="true"/>
-    <col min="8" max="8" width="10.28515625" customWidth="true"/>
+    <col min="8" max="8" width="37.5703125" customWidth="true"/>
+    <col min="9" max="9" width="37.5703125" customWidth="true"/>
+    <col min="10" max="10" width="37.5703125" customWidth="true"/>
+    <col min="11" max="11" width="38.5703125" customWidth="true"/>
+    <col min="12" max="12" width="38.5703125" customWidth="true"/>
+    <col min="13" max="13" width="38.5703125" customWidth="true"/>
+    <col min="14" max="14" width="38.5703125" customWidth="true"/>
+    <col min="15" max="15" width="38.5703125" customWidth="true"/>
+    <col min="16" max="16" width="38.5703125" customWidth="true"/>
+    <col min="17" max="17" width="38.5703125" customWidth="true"/>
+    <col min="18" max="18" width="38.5703125" customWidth="true"/>
+    <col min="19" max="19" width="34" customWidth="true"/>
+    <col min="20" max="20" width="34" customWidth="true"/>
+    <col min="21" max="21" width="10.28515625" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -171,31 +223,109 @@
       <c r="H1" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="I1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.14204810917872668</v>
+        <v>2.2202755512080299e-14</v>
       </c>
       <c r="C2">
-        <v>0.14204810917872668</v>
+        <v>2.2202755512080299e-14</v>
       </c>
       <c r="D2">
-        <v>0.14204810917872668</v>
+        <v>2.2202755512080299e-14</v>
       </c>
       <c r="E2">
-        <v>0.14204810917872676</v>
+        <v>0.00058294335740445373</v>
       </c>
       <c r="F2">
-        <v>0.28975945410636694</v>
+        <v>3.738461989725648e-11</v>
       </c>
       <c r="G2">
-        <v>0.14204810917872632</v>
+        <v>2.2202755512080299e-14</v>
       </c>
       <c r="H2">
-        <v>5</v>
+        <v>2.2202755512080299e-14</v>
+      </c>
+      <c r="I2">
+        <v>2.2202755512080299e-14</v>
+      </c>
+      <c r="J2">
+        <v>0.99853473152985806</v>
+      </c>
+      <c r="K2">
+        <v>0.00068960216005318044</v>
+      </c>
+      <c r="L2">
+        <v>2.2202755512080299e-14</v>
+      </c>
+      <c r="M2">
+        <v>6.4494556075202225e-05</v>
+      </c>
+      <c r="N2">
+        <v>2.2202755512080299e-14</v>
+      </c>
+      <c r="O2">
+        <v>2.2202755512080299e-14</v>
+      </c>
+      <c r="P2">
+        <v>2.0949924671377009e-11</v>
+      </c>
+      <c r="Q2">
+        <v>2.2202755512080299e-14</v>
+      </c>
+      <c r="R2">
+        <v>2.2202755512080299e-14</v>
+      </c>
+      <c r="S2">
+        <v>0.00012822833800819447</v>
+      </c>
+      <c r="T2">
+        <v>2.2202755512080299e-14</v>
+      </c>
+      <c r="U2">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -203,25 +333,64 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.49999999999984457</v>
+        <v>2.2204143118598552e-14</v>
       </c>
       <c r="C3">
-        <v>7.7715595070388014e-14</v>
+        <v>2.2204143118598552e-14</v>
       </c>
       <c r="D3">
-        <v>7.7715595070388014e-14</v>
+        <v>2.2204143118598552e-14</v>
       </c>
       <c r="E3">
-        <v>7.7715595070388014e-14</v>
+        <v>0.00058064963544848228</v>
       </c>
       <c r="F3">
-        <v>0.49999999999984457</v>
+        <v>9.8622913950651632e-12</v>
       </c>
       <c r="G3">
-        <v>7.7715595070388027e-14</v>
+        <v>2.2204143118598552e-14</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>2.2204143118598552e-14</v>
+      </c>
+      <c r="I3">
+        <v>2.2204143118598552e-14</v>
+      </c>
+      <c r="J3">
+        <v>2.2204143118598552e-14</v>
+      </c>
+      <c r="K3">
+        <v>0.99865939454813479</v>
+      </c>
+      <c r="L3">
+        <v>2.2204143118598552e-14</v>
+      </c>
+      <c r="M3">
+        <v>0.00054457651959957762</v>
+      </c>
+      <c r="N3">
+        <v>2.2204143118598552e-14</v>
+      </c>
+      <c r="O3">
+        <v>2.2204143118598552e-14</v>
+      </c>
+      <c r="P3">
+        <v>8.42168046665389e-13</v>
+      </c>
+      <c r="Q3">
+        <v>2.2204143118598552e-14</v>
+      </c>
+      <c r="R3">
+        <v>1.5686138094047574e-08</v>
+      </c>
+      <c r="S3">
+        <v>0.00021536359970819182</v>
+      </c>
+      <c r="T3">
+        <v>2.2204143118598552e-14</v>
+      </c>
+      <c r="U3">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -229,25 +398,64 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>2.2206420597007035e-14</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>2.2206420597007035e-14</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>2.2206420597007035e-14</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>7.8729328626288208e-06</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>1.2864967223801382e-12</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>2.2206420597007041e-14</v>
       </c>
       <c r="H4">
-        <v>5</v>
+        <v>2.2206420597007041e-14</v>
+      </c>
+      <c r="I4">
+        <v>2.2206420597007041e-14</v>
+      </c>
+      <c r="J4">
+        <v>2.2206420597007041e-14</v>
+      </c>
+      <c r="K4">
+        <v>0.99971070991920097</v>
+      </c>
+      <c r="L4">
+        <v>2.2206420597007035e-14</v>
+      </c>
+      <c r="M4">
+        <v>5.36839725007326e-05</v>
+      </c>
+      <c r="N4">
+        <v>2.2206420597007035e-14</v>
+      </c>
+      <c r="O4">
+        <v>2.2206420597007035e-14</v>
+      </c>
+      <c r="P4">
+        <v>3.8315847729608946e-06</v>
+      </c>
+      <c r="Q4">
+        <v>2.2206420597007035e-14</v>
+      </c>
+      <c r="R4">
+        <v>3.8297763841935628e-07</v>
+      </c>
+      <c r="S4">
+        <v>0.00022351861147126555</v>
+      </c>
+      <c r="T4">
+        <v>2.2206420597007035e-14</v>
+      </c>
+      <c r="U4">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -255,25 +463,64 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.077917255177408648</v>
+        <v>3.14247415577371e-13</v>
       </c>
       <c r="C5">
-        <v>2.2382307161749346e-14</v>
+        <v>3.14247415577371e-13</v>
       </c>
       <c r="D5">
-        <v>0.84416548964511551</v>
+        <v>3.1424741557737206e-13</v>
       </c>
       <c r="E5">
-        <v>2.2382307161749346e-14</v>
+        <v>0.012269709371947372</v>
       </c>
       <c r="F5">
-        <v>0.077917255177408648</v>
+        <v>3.1114724256446725e-09</v>
       </c>
       <c r="G5">
-        <v>2.2382307161749346e-14</v>
+        <v>3.1424741557730451e-13</v>
       </c>
       <c r="H5">
-        <v>3</v>
+        <v>3.1424741557730627e-13</v>
+      </c>
+      <c r="I5">
+        <v>3.1424741557730627e-13</v>
+      </c>
+      <c r="J5">
+        <v>3.1424741557730451e-13</v>
+      </c>
+      <c r="K5">
+        <v>2.7398373097928581e-06</v>
+      </c>
+      <c r="L5">
+        <v>3.1424741557737201e-13</v>
+      </c>
+      <c r="M5">
+        <v>0.98467271308932403</v>
+      </c>
+      <c r="N5">
+        <v>3.1424741557737201e-13</v>
+      </c>
+      <c r="O5">
+        <v>3.142474155773709e-13</v>
+      </c>
+      <c r="P5">
+        <v>2.1634236402817779e-09</v>
+      </c>
+      <c r="Q5">
+        <v>3.1424741557737201e-13</v>
+      </c>
+      <c r="R5">
+        <v>9.1156698990627491e-09</v>
+      </c>
+      <c r="S5">
+        <v>0.0030548233070820273</v>
+      </c>
+      <c r="T5">
+        <v>3.1424741557736994e-13</v>
+      </c>
+      <c r="U5">
+        <v>12</v>
       </c>
     </row>
     <row r="6">
@@ -281,25 +528,64 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>2.2204207630070998e-14</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>2.2204207630070998e-14</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>2.2204207630070998e-14</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>9.2953685089347633e-13</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>4.5146481389028218e-06</v>
       </c>
       <c r="G6">
-        <v>1</v>
+        <v>2.2204207630070998e-14</v>
       </c>
       <c r="H6">
-        <v>6</v>
+        <v>2.2204207630070998e-14</v>
+      </c>
+      <c r="I6">
+        <v>2.2204207630070998e-14</v>
+      </c>
+      <c r="J6">
+        <v>2.2204207630070998e-14</v>
+      </c>
+      <c r="K6">
+        <v>2.0258629261594476e-12</v>
+      </c>
+      <c r="L6">
+        <v>0.99978349123349641</v>
+      </c>
+      <c r="M6">
+        <v>9.6516112233166159e-08</v>
+      </c>
+      <c r="N6">
+        <v>2.2204207630070998e-14</v>
+      </c>
+      <c r="O6">
+        <v>2.2204207630070998e-14</v>
+      </c>
+      <c r="P6">
+        <v>5.0933717956991537e-10</v>
+      </c>
+      <c r="Q6">
+        <v>2.2204207630070998e-14</v>
+      </c>
+      <c r="R6">
+        <v>2.2204207630070998e-14</v>
+      </c>
+      <c r="S6">
+        <v>0.00021189708969336629</v>
+      </c>
+      <c r="T6">
+        <v>2.2204207630070998e-14</v>
+      </c>
+      <c r="U6">
+        <v>11</v>
       </c>
     </row>
     <row r="7">
@@ -307,25 +593,64 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>2.2204125838104293e-14</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>2.2204125838104293e-14</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>2.2204125838104293e-14</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>4.217517246929735e-05</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>1.2072058259769044e-12</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>2.2204125838104293e-14</v>
       </c>
       <c r="H7">
-        <v>5</v>
+        <v>2.2204125838104293e-14</v>
+      </c>
+      <c r="I7">
+        <v>2.2204125838104293e-14</v>
+      </c>
+      <c r="J7">
+        <v>2.2204125838104293e-14</v>
+      </c>
+      <c r="K7">
+        <v>0.99958725964381645</v>
+      </c>
+      <c r="L7">
+        <v>2.2204125838104293e-14</v>
+      </c>
+      <c r="M7">
+        <v>0.0001858292214835881</v>
+      </c>
+      <c r="N7">
+        <v>2.2204125838104293e-14</v>
+      </c>
+      <c r="O7">
+        <v>2.2204125838104293e-14</v>
+      </c>
+      <c r="P7">
+        <v>1.017241315868789e-07</v>
+      </c>
+      <c r="Q7">
+        <v>2.2204125838104293e-14</v>
+      </c>
+      <c r="R7">
+        <v>2.8495050157625205e-10</v>
+      </c>
+      <c r="S7">
+        <v>0.00018463395167474963</v>
+      </c>
+      <c r="T7">
+        <v>2.2204125838104293e-14</v>
+      </c>
+      <c r="U7">
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -333,25 +658,64 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>0.077917255177408648</v>
+        <v>3.6816175482249954e-13</v>
       </c>
       <c r="C8">
-        <v>2.2382307161749346e-14</v>
+        <v>3.6816175482249954e-13</v>
       </c>
       <c r="D8">
-        <v>0.84416548964511551</v>
+        <v>3.6816175482249954e-13</v>
       </c>
       <c r="E8">
-        <v>2.2382307161749346e-14</v>
+        <v>0.020909673611369847</v>
       </c>
       <c r="F8">
-        <v>0.077917255177408648</v>
+        <v>1.039690675117842e-07</v>
       </c>
       <c r="G8">
-        <v>2.2382307161749346e-14</v>
+        <v>3.6816175482249939e-13</v>
       </c>
       <c r="H8">
-        <v>3</v>
+        <v>3.6816175482250252e-13</v>
+      </c>
+      <c r="I8">
+        <v>3.6816175482250252e-13</v>
+      </c>
+      <c r="J8">
+        <v>3.6816175482250045e-13</v>
+      </c>
+      <c r="K8">
+        <v>6.8450803027592001e-07</v>
+      </c>
+      <c r="L8">
+        <v>3.6816175482250035e-13</v>
+      </c>
+      <c r="M8">
+        <v>0.97556027859585581</v>
+      </c>
+      <c r="N8">
+        <v>3.6816175482250035e-13</v>
+      </c>
+      <c r="O8">
+        <v>3.6816175482249914e-13</v>
+      </c>
+      <c r="P8">
+        <v>3.6816175482283629e-13</v>
+      </c>
+      <c r="Q8">
+        <v>3.6816175482250035e-13</v>
+      </c>
+      <c r="R8">
+        <v>5.616746153032365e-11</v>
+      </c>
+      <c r="S8">
+        <v>0.0035292592547229518</v>
+      </c>
+      <c r="T8">
+        <v>3.681617548224429e-13</v>
+      </c>
+      <c r="U8">
+        <v>12</v>
       </c>
     </row>
     <row r="9">
@@ -359,25 +723,64 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>2.220442805852685e-14</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>2.220442805852685e-14</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>2.220442805852685e-14</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>2.4085279211136822e-12</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>7.2648495738389514e-07</v>
       </c>
       <c r="G9">
-        <v>1</v>
+        <v>2.220442805852685e-14</v>
       </c>
       <c r="H9">
-        <v>6</v>
+        <v>2.220442805852685e-14</v>
+      </c>
+      <c r="I9">
+        <v>2.220442805852685e-14</v>
+      </c>
+      <c r="J9">
+        <v>2.220442805852685e-14</v>
+      </c>
+      <c r="K9">
+        <v>4.8731003029314354e-08</v>
+      </c>
+      <c r="L9">
+        <v>2.220442805852685e-14</v>
+      </c>
+      <c r="M9">
+        <v>1.6556321119951319e-08</v>
+      </c>
+      <c r="N9">
+        <v>0.99997224449269839</v>
+      </c>
+      <c r="O9">
+        <v>2.220442805852685e-14</v>
+      </c>
+      <c r="P9">
+        <v>2.220442805852685e-14</v>
+      </c>
+      <c r="Q9">
+        <v>2.220442805852685e-14</v>
+      </c>
+      <c r="R9">
+        <v>2.220442805852685e-14</v>
+      </c>
+      <c r="S9">
+        <v>2.6963732323032675e-05</v>
+      </c>
+      <c r="T9">
+        <v>2.220442805852685e-14</v>
+      </c>
+      <c r="U9">
+        <v>13</v>
       </c>
     </row>
     <row r="10">
@@ -385,25 +788,64 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>0.077917255177408648</v>
+        <v>2.2202319228871134e-14</v>
       </c>
       <c r="C10">
-        <v>2.2382307161749346e-14</v>
+        <v>2.2202319228871134e-14</v>
       </c>
       <c r="D10">
-        <v>0.84416548964511551</v>
+        <v>2.2202319228871134e-14</v>
       </c>
       <c r="E10">
-        <v>2.2382307161749346e-14</v>
+        <v>0.0025538567982408516</v>
       </c>
       <c r="F10">
-        <v>0.077917255177408648</v>
+        <v>2.2417639587128854e-07</v>
       </c>
       <c r="G10">
-        <v>2.2382307161749346e-14</v>
+        <v>2.2202319228871134e-14</v>
       </c>
       <c r="H10">
-        <v>3</v>
+        <v>2.2202319228871134e-14</v>
+      </c>
+      <c r="I10">
+        <v>2.2202319228871134e-14</v>
+      </c>
+      <c r="J10">
+        <v>2.2202319228871134e-14</v>
+      </c>
+      <c r="K10">
+        <v>8.7672796410744288e-05</v>
+      </c>
+      <c r="L10">
+        <v>2.2202319228871134e-14</v>
+      </c>
+      <c r="M10">
+        <v>0.0052243972993771233</v>
+      </c>
+      <c r="N10">
+        <v>2.2202319228871134e-14</v>
+      </c>
+      <c r="O10">
+        <v>0.9921199320216979</v>
+      </c>
+      <c r="P10">
+        <v>5.4939674051038914e-12</v>
+      </c>
+      <c r="Q10">
+        <v>2.2202319228871134e-14</v>
+      </c>
+      <c r="R10">
+        <v>2.2202319228871134e-14</v>
+      </c>
+      <c r="S10">
+        <v>1.3916902116942198e-05</v>
+      </c>
+      <c r="T10">
+        <v>2.2202319228871134e-14</v>
+      </c>
+      <c r="U10">
+        <v>14</v>
       </c>
     </row>
     <row r="11">
@@ -411,25 +853,64 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>2.226168165897169e-14</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>2.226168165897169e-14</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>2.226168165897169e-14</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>0.00011397511916119768</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>4.0157222528142303e-12</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>2.226168165897169e-14</v>
       </c>
       <c r="H11">
-        <v>5</v>
+        <v>2.226168165897169e-14</v>
+      </c>
+      <c r="I11">
+        <v>2.226168165897169e-14</v>
+      </c>
+      <c r="J11">
+        <v>2.226168165897169e-14</v>
+      </c>
+      <c r="K11">
+        <v>0.99948839008939294</v>
+      </c>
+      <c r="L11">
+        <v>2.226168165897169e-14</v>
+      </c>
+      <c r="M11">
+        <v>0.00019868503985428503</v>
+      </c>
+      <c r="N11">
+        <v>2.226168165897169e-14</v>
+      </c>
+      <c r="O11">
+        <v>2.226168165897169e-14</v>
+      </c>
+      <c r="P11">
+        <v>4.628913364116664e-11</v>
+      </c>
+      <c r="Q11">
+        <v>2.226168165897169e-14</v>
+      </c>
+      <c r="R11">
+        <v>4.0903997708902524e-06</v>
+      </c>
+      <c r="S11">
+        <v>0.00019485930124905199</v>
+      </c>
+      <c r="T11">
+        <v>2.2261681658971683e-14</v>
+      </c>
+      <c r="U11">
+        <v>10</v>
       </c>
     </row>
     <row r="12">
@@ -437,25 +918,64 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>7.7715595070388014e-14</v>
+        <v>2.2226434563213594e-14</v>
       </c>
       <c r="C12">
-        <v>7.7715595070388014e-14</v>
+        <v>2.2226434563213594e-14</v>
       </c>
       <c r="D12">
-        <v>7.7715595070388014e-14</v>
+        <v>2.2226434563213594e-14</v>
       </c>
       <c r="E12">
-        <v>7.7715595070388014e-14</v>
+        <v>1.4344799051274928e-10</v>
       </c>
       <c r="F12">
-        <v>0.49999999999984457</v>
+        <v>2.9709988063091421e-09</v>
       </c>
       <c r="G12">
-        <v>0.49999999999984457</v>
+        <v>2.2226434563213594e-14</v>
       </c>
       <c r="H12">
-        <v>5</v>
+        <v>2.2226434563213594e-14</v>
+      </c>
+      <c r="I12">
+        <v>2.2226434563213594e-14</v>
+      </c>
+      <c r="J12">
+        <v>2.2226434563213594e-14</v>
+      </c>
+      <c r="K12">
+        <v>8.7930159736775065e-07</v>
+      </c>
+      <c r="L12">
+        <v>2.22264345632136e-14</v>
+      </c>
+      <c r="M12">
+        <v>1.2332541990053942e-07</v>
+      </c>
+      <c r="N12">
+        <v>2.22264345632136e-14</v>
+      </c>
+      <c r="O12">
+        <v>2.22264345632136e-14</v>
+      </c>
+      <c r="P12">
+        <v>0.99996577394653685</v>
+      </c>
+      <c r="Q12">
+        <v>2.22264345632136e-14</v>
+      </c>
+      <c r="R12">
+        <v>1.208666560631273e-11</v>
+      </c>
+      <c r="S12">
+        <v>3.3220299645782014e-05</v>
+      </c>
+      <c r="T12">
+        <v>2.2226434563213594e-14</v>
+      </c>
+      <c r="U12">
+        <v>15</v>
       </c>
     </row>
     <row r="13">
@@ -463,25 +983,64 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>2.2202637232819808e-14</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>2.2202637232819808e-14</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>2.2202637232819808e-14</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>2.2202637232819808e-14</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>0.00031179490486567659</v>
       </c>
       <c r="G13">
-        <v>1</v>
+        <v>2.2202637232819808e-14</v>
       </c>
       <c r="H13">
-        <v>6</v>
+        <v>2.2202637232819808e-14</v>
+      </c>
+      <c r="I13">
+        <v>2.2202637232819808e-14</v>
+      </c>
+      <c r="J13">
+        <v>2.2202637232819808e-14</v>
+      </c>
+      <c r="K13">
+        <v>2.2202637232819808e-14</v>
+      </c>
+      <c r="L13">
+        <v>2.2202637232819808e-14</v>
+      </c>
+      <c r="M13">
+        <v>9.3092442402691493e-08</v>
+      </c>
+      <c r="N13">
+        <v>2.2202637232819808e-14</v>
+      </c>
+      <c r="O13">
+        <v>2.2202637232819808e-14</v>
+      </c>
+      <c r="P13">
+        <v>6.3850742640577969e-14</v>
+      </c>
+      <c r="Q13">
+        <v>0.99843260904133013</v>
+      </c>
+      <c r="R13">
+        <v>2.2202637232819808e-14</v>
+      </c>
+      <c r="S13">
+        <v>0.0012555029609869583</v>
+      </c>
+      <c r="T13">
+        <v>2.2202637232819808e-14</v>
+      </c>
+      <c r="U13">
+        <v>16</v>
       </c>
     </row>
     <row r="14">
@@ -489,25 +1048,64 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>2.2202264524324714e-14</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>2.2202264524324714e-14</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>2.2202264524324714e-14</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>0.00018107828892478136</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>6.5369910254630448e-12</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>2.2202264524324714e-14</v>
       </c>
       <c r="H14">
-        <v>5</v>
+        <v>2.2202264524324714e-14</v>
+      </c>
+      <c r="I14">
+        <v>2.2202264524324714e-14</v>
+      </c>
+      <c r="J14">
+        <v>2.2202264524324714e-14</v>
+      </c>
+      <c r="K14">
+        <v>0.00016545108382637103</v>
+      </c>
+      <c r="L14">
+        <v>2.2202264524324714e-14</v>
+      </c>
+      <c r="M14">
+        <v>0.0008906922442633564</v>
+      </c>
+      <c r="N14">
+        <v>2.2202264524324714e-14</v>
+      </c>
+      <c r="O14">
+        <v>2.2202264524324714e-14</v>
+      </c>
+      <c r="P14">
+        <v>1.7367781313116658e-06</v>
+      </c>
+      <c r="Q14">
+        <v>2.2202264524324714e-14</v>
+      </c>
+      <c r="R14">
+        <v>0.99807628387104408</v>
+      </c>
+      <c r="S14">
+        <v>0.0006847577270065958</v>
+      </c>
+      <c r="T14">
+        <v>2.2202264524324714e-14</v>
+      </c>
+      <c r="U14">
+        <v>17</v>
       </c>
     </row>
     <row r="15">
@@ -515,25 +1113,64 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>0.28975945410636716</v>
+        <v>2.2201306496482577e-14</v>
       </c>
       <c r="C15">
-        <v>0.14204810917872665</v>
+        <v>2.2201306496482577e-14</v>
       </c>
       <c r="D15">
-        <v>0.14204810917872657</v>
+        <v>2.2201306496482577e-14</v>
       </c>
       <c r="E15">
-        <v>0.14204810917872657</v>
+        <v>0.00046489592374151015</v>
       </c>
       <c r="F15">
-        <v>0.14204810917872657</v>
+        <v>4.0169227949731823e-06</v>
       </c>
       <c r="G15">
-        <v>0.14204810917872654</v>
+        <v>2.2201306496482577e-14</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>2.2201306496482577e-14</v>
+      </c>
+      <c r="I15">
+        <v>2.2201306496482577e-14</v>
+      </c>
+      <c r="J15">
+        <v>2.2201306496482577e-14</v>
+      </c>
+      <c r="K15">
+        <v>5.049320318977939e-07</v>
+      </c>
+      <c r="L15">
+        <v>2.2201306496482577e-14</v>
+      </c>
+      <c r="M15">
+        <v>0.0077951274088254507</v>
+      </c>
+      <c r="N15">
+        <v>2.2201306496482577e-14</v>
+      </c>
+      <c r="O15">
+        <v>0.99172754704847743</v>
+      </c>
+      <c r="P15">
+        <v>2.2201306496482577e-14</v>
+      </c>
+      <c r="Q15">
+        <v>2.2201306496482577e-14</v>
+      </c>
+      <c r="R15">
+        <v>2.2201306496482577e-14</v>
+      </c>
+      <c r="S15">
+        <v>7.9077638400586266e-06</v>
+      </c>
+      <c r="T15">
+        <v>2.2201306496482577e-14</v>
+      </c>
+      <c r="U15">
+        <v>14</v>
       </c>
     </row>
     <row r="16">
@@ -541,25 +1178,64 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>0.04936526714400874</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>0.04936526714400874</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>0.049365267144008664</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>0.049365267144010266</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>0.04957345970705327</v>
       </c>
       <c r="G16">
-        <v>1</v>
+        <v>0.049365267144008677</v>
       </c>
       <c r="H16">
-        <v>6</v>
+        <v>0.049365267144008747</v>
+      </c>
+      <c r="I16">
+        <v>0.049365267144008747</v>
+      </c>
+      <c r="J16">
+        <v>0.049365267144008747</v>
+      </c>
+      <c r="K16">
+        <v>0.049365267144008643</v>
+      </c>
+      <c r="L16">
+        <v>0.049365267144008747</v>
+      </c>
+      <c r="M16">
+        <v>0.049365372441689946</v>
+      </c>
+      <c r="N16">
+        <v>0.049365267144008636</v>
+      </c>
+      <c r="O16">
+        <v>0.049365267144008636</v>
+      </c>
+      <c r="P16">
+        <v>0.049365267144008636</v>
+      </c>
+      <c r="Q16">
+        <v>0.11006844064001889</v>
+      </c>
+      <c r="R16">
+        <v>0.049365267144008636</v>
+      </c>
+      <c r="S16">
+        <v>0.050513720051106201</v>
+      </c>
+      <c r="T16">
+        <v>0.049365267144008629</v>
+      </c>
+      <c r="U16">
+        <v>16</v>
       </c>
     </row>
     <row r="17">
@@ -567,25 +1243,64 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>2.220417350982293e-14</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>2.220417350982293e-14</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>2.220417350982293e-14</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>1.2322983330657756e-09</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>5.070077543278174e-08</v>
       </c>
       <c r="G17">
-        <v>1</v>
+        <v>2.220417350982293e-14</v>
       </c>
       <c r="H17">
-        <v>6</v>
+        <v>2.220417350982293e-14</v>
+      </c>
+      <c r="I17">
+        <v>0.99975425517152594</v>
+      </c>
+      <c r="J17">
+        <v>2.220417350982293e-14</v>
+      </c>
+      <c r="K17">
+        <v>8.4233624863825804e-12</v>
+      </c>
+      <c r="L17">
+        <v>2.220417350982293e-14</v>
+      </c>
+      <c r="M17">
+        <v>5.4331823817114385e-06</v>
+      </c>
+      <c r="N17">
+        <v>2.220417350982293e-14</v>
+      </c>
+      <c r="O17">
+        <v>2.220417350982293e-14</v>
+      </c>
+      <c r="P17">
+        <v>2.220417350982293e-14</v>
+      </c>
+      <c r="Q17">
+        <v>2.220417350982293e-14</v>
+      </c>
+      <c r="R17">
+        <v>2.220417350982293e-14</v>
+      </c>
+      <c r="S17">
+        <v>0.00024025970430672003</v>
+      </c>
+      <c r="T17">
+        <v>2.220417350982293e-14</v>
+      </c>
+      <c r="U17">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
